--- a/results/supervised.xlsx
+++ b/results/supervised.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ddesblancs/Documents/zeroNoteSamba/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E6CFFD-4B7B-D94E-9E6A-96A6548139C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC7763FA-DBD8-204D-82BD-8B00034B594E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14360" yWindow="500" windowWidth="14440" windowHeight="15300" xr2:uid="{DA21ABAE-0A22-BA4D-AF6F-47D3516B9FF5}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="152">
   <si>
     <t>SMC Mirex</t>
   </si>
@@ -43,9 +43,6 @@
     <t>Hainsworth</t>
   </si>
   <si>
-    <t>Bock TCN</t>
-  </si>
-  <si>
     <t>0.933</t>
   </si>
   <si>
@@ -376,9 +373,6 @@
     <t>Information Gain</t>
   </si>
   <si>
-    <t>Gtzan</t>
-  </si>
-  <si>
     <t>0.411</t>
   </si>
   <si>
@@ -446,6 +440,54 @@
   </si>
   <si>
     <t>0.027</t>
+  </si>
+  <si>
+    <t>0.921</t>
+  </si>
+  <si>
+    <t>0.842</t>
+  </si>
+  <si>
+    <t>0.857</t>
+  </si>
+  <si>
+    <t>0.905</t>
+  </si>
+  <si>
+    <t>0.922</t>
+  </si>
+  <si>
+    <t>0.562</t>
+  </si>
+  <si>
+    <t>0.010</t>
+  </si>
+  <si>
+    <t>0.722</t>
+  </si>
+  <si>
+    <t>0.742</t>
+  </si>
+  <si>
+    <t>0.868</t>
+  </si>
+  <si>
+    <t>0.898</t>
+  </si>
+  <si>
+    <t>0.542</t>
+  </si>
+  <si>
+    <t>Mean Bock TCN</t>
+  </si>
+  <si>
+    <t>Dataset</t>
+  </si>
+  <si>
+    <t>Metric</t>
+  </si>
+  <si>
+    <t>GTZAN</t>
   </si>
 </sst>
 </file>
@@ -821,7 +863,7 @@
   <dimension ref="A1:U29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -852,27 +894,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
+      <c r="A1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="C1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>3</v>
+        <v>148</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -882,28 +929,28 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -911,28 +958,28 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -940,28 +987,28 @@
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -969,28 +1016,28 @@
         <v>0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -998,28 +1045,28 @@
         <v>0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -1027,28 +1074,28 @@
         <v>0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" t="s">
         <v>33</v>
       </c>
-      <c r="H7" t="s">
-        <v>34</v>
-      </c>
       <c r="I7" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -1056,22 +1103,28 @@
         <v>1</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D8" t="s">
-        <v>104</v>
+        <v>103</v>
+      </c>
+      <c r="E8" t="s">
+        <v>136</v>
+      </c>
+      <c r="F8" t="s">
+        <v>142</v>
       </c>
       <c r="G8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -1079,22 +1132,28 @@
         <v>1</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="E9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F9" t="s">
+        <v>38</v>
       </c>
       <c r="G9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -1102,22 +1161,28 @@
         <v>1</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="E10" t="s">
+        <v>138</v>
+      </c>
+      <c r="F10" t="s">
+        <v>41</v>
       </c>
       <c r="G10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -1125,22 +1190,28 @@
         <v>1</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D11" t="s">
-        <v>105</v>
+        <v>104</v>
+      </c>
+      <c r="E11" t="s">
+        <v>139</v>
+      </c>
+      <c r="F11" t="s">
+        <v>43</v>
       </c>
       <c r="G11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -1148,22 +1219,28 @@
         <v>1</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" t="s">
+        <v>140</v>
+      </c>
+      <c r="F12" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" t="s">
         <v>38</v>
       </c>
-      <c r="G12" t="s">
-        <v>57</v>
-      </c>
-      <c r="H12" t="s">
-        <v>39</v>
-      </c>
       <c r="I12" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -1171,22 +1248,28 @@
         <v>1</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D13" t="s">
-        <v>74</v>
+        <v>73</v>
+      </c>
+      <c r="E13" t="s">
+        <v>141</v>
+      </c>
+      <c r="F13" t="s">
+        <v>105</v>
       </c>
       <c r="G13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -1194,28 +1277,28 @@
         <v>2</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E14" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -1223,28 +1306,28 @@
         <v>2</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E15" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F15" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -1252,28 +1335,28 @@
         <v>2</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E16" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
@@ -1281,28 +1364,28 @@
         <v>2</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E17" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F17" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
@@ -1310,28 +1393,28 @@
         <v>2</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F18" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
@@ -1339,166 +1422,202 @@
         <v>2</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>114</v>
+        <v>151</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D20" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="E20" t="s">
+        <v>88</v>
+      </c>
+      <c r="F20" t="s">
+        <v>73</v>
       </c>
       <c r="G20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>114</v>
+        <v>151</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D21" t="s">
-        <v>102</v>
+        <v>101</v>
+      </c>
+      <c r="E21" t="s">
+        <v>143</v>
+      </c>
+      <c r="F21" t="s">
+        <v>77</v>
       </c>
       <c r="G21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>114</v>
+        <v>151</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D22" t="s">
-        <v>107</v>
+        <v>106</v>
+      </c>
+      <c r="E22" t="s">
+        <v>144</v>
+      </c>
+      <c r="F22" t="s">
+        <v>33</v>
       </c>
       <c r="G22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>114</v>
+        <v>151</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D23" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="E23" t="s">
+        <v>145</v>
+      </c>
+      <c r="F23" t="s">
+        <v>105</v>
       </c>
       <c r="G23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>114</v>
+        <v>151</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>46</v>
+        <v>45</v>
+      </c>
+      <c r="E24" t="s">
+        <v>146</v>
+      </c>
+      <c r="F24" t="s">
+        <v>76</v>
       </c>
       <c r="G24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>114</v>
+        <v>151</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D25" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="E25" t="s">
+        <v>147</v>
+      </c>
+      <c r="F25" t="s">
+        <v>105</v>
       </c>
       <c r="G25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.2">
